--- a/Project2 - GenerateYearlyReportforVendor/Data/Config.xlsx
+++ b/Project2 - GenerateYearlyReportforVendor/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RPA\UiPath\GenerateYearlyReportforVendor\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RPA\UiPath\RPA_DeveloperAdvanced\Project2 - GenerateYearlyReportforVendor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6F492-45C1-4CD3-8C3D-0A4D72899423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B776E30-220D-4677-9688-F2B6E8C3EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>RefColumn</t>
   </si>
   <si>
-    <t>ExceptionsMailAddress</t>
-  </si>
-  <si>
     <t>ExMailAddress</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>.csv</t>
+  </si>
+  <si>
+    <t>Acme_ExMailAddress</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -764,15 +764,15 @@
         <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -804,10 +804,10 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>41</v>
@@ -816,19 +816,19 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1829,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1902,7 +1902,7 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>500</v>
@@ -1949,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>48</v>
@@ -1991,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -2001,37 +2001,37 @@
     </row>
     <row r="20" spans="1:3" ht="60">
       <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" ht="60">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="30">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="7"/>
     </row>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="5">
         <v>13</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -2112,18 +2112,18 @@
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3100,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="19.5" customHeight="1"/>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>31</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
